--- a/mappingCorps/ig/FRConditionLMCDAFHIR.xlsx
+++ b/mappingCorps/ig/FRConditionLMCDAFHIR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
   <si>
     <t>Property</t>
   </si>
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T14:59:20+00:00</t>
+    <t>2026-01-22T09:24:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -148,10 +148,16 @@
     <t>FRCDAProbleme.statusCode</t>
   </si>
   <si>
-    <t>FRLMProbleme.dateProbleme</t>
-  </si>
-  <si>
-    <t>FRCDAProbleme.effectiveTime</t>
+    <t>FRLMProbleme.dateDebutProbleme</t>
+  </si>
+  <si>
+    <t>FRCDAProbleme.effectiveTime.low</t>
+  </si>
+  <si>
+    <t>FRLMProbleme.dateFinProbleme</t>
+  </si>
+  <si>
+    <t>FRCDAProbleme.effectiveTime.high</t>
   </si>
   <si>
     <t>FRLMProbleme.statutProbleme</t>
@@ -220,21 +226,15 @@
     <t>FRConditionDocument.code</t>
   </si>
   <si>
-    <t>FRCDAProbleme.effectiveTime.low</t>
+    <t>FRConditionDocument.clinicalStatus</t>
   </si>
   <si>
     <t>FRConditionDocument.onsetDateTime</t>
   </si>
   <si>
-    <t>FRCDAProbleme.effectiveTime.high</t>
-  </si>
-  <si>
     <t>FRConditionDocument.abatementDateTime</t>
   </si>
   <si>
-    <t>FRConditionDocument.clinicalStatus</t>
-  </si>
-  <si>
     <t>FRConditionDocument.severity</t>
   </si>
   <si>
@@ -245,6 +245,12 @@
   </si>
   <si>
     <t>FRConditionDocument.evidence.detail</t>
+  </si>
+  <si>
+    <t>FRConditionDocument.evidence.detail:FRDocumentReferenceDocument.identifier</t>
+  </si>
+  <si>
+    <t>FRConditionDocument.evidence.detail:FRDocumentReferenceDocument.content.attachment.url</t>
   </si>
   <si>
     <t>FRConditionDocument.note</t>
@@ -502,7 +508,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -737,6 +743,19 @@
       </c>
       <c r="E17" s="2"/>
     </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -744,7 +763,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -778,7 +797,7 @@
         <v>29</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>29</v>
@@ -793,7 +812,7 @@
         <v>32</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -806,7 +825,7 @@
         <v>32</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -819,7 +838,7 @@
         <v>32</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -832,7 +851,7 @@
         <v>32</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -845,26 +864,26 @@
         <v>32</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -897,7 +916,7 @@
         <v>32</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -910,7 +929,7 @@
         <v>32</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -923,7 +942,7 @@
         <v>32</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -936,22 +955,61 @@
         <v>32</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E18" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/mappingCorps/ig/FRConditionLMCDAFHIR.xlsx
+++ b/mappingCorps/ig/FRConditionLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T09:24:45+00:00</t>
+    <t>2026-01-22T13:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/FRConditionLMCDAFHIR.xlsx
+++ b/mappingCorps/ig/FRConditionLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T13:29:51+00:00</t>
+    <t>2026-01-26T10:27:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/FRConditionLMCDAFHIR.xlsx
+++ b/mappingCorps/ig/FRConditionLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-26T10:27:23+00:00</t>
+    <t>2026-02-03T11:02:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/FRConditionLMCDAFHIR.xlsx
+++ b/mappingCorps/ig/FRConditionLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-03T11:02:09+00:00</t>
+    <t>2026-02-04T10:58:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
